--- a/objetivos.xlsx
+++ b/objetivos.xlsx
@@ -394,16 +394,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3671</v>
+        <v>2751</v>
       </c>
       <c r="D2">
-        <v>2807</v>
+        <v>1405</v>
       </c>
       <c r="E2">
-        <v>2577</v>
+        <v>997</v>
       </c>
       <c r="F2">
-        <v>2056</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -412,16 +412,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2401</v>
+        <v>1653</v>
       </c>
       <c r="D3">
-        <v>2155</v>
+        <v>1149</v>
       </c>
       <c r="E3">
-        <v>2446</v>
+        <v>927</v>
       </c>
       <c r="F3">
-        <v>2362</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3170</v>
+        <v>2493</v>
       </c>
       <c r="D4">
-        <v>2871</v>
+        <v>1219</v>
       </c>
       <c r="E4">
-        <v>2300</v>
+        <v>987</v>
       </c>
       <c r="F4">
-        <v>2008</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -448,16 +448,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3579</v>
+        <v>3191</v>
       </c>
       <c r="D5">
-        <v>3154</v>
+        <v>1897</v>
       </c>
       <c r="E5">
-        <v>2378</v>
+        <v>1043</v>
       </c>
       <c r="F5">
-        <v>1965</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -466,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2073</v>
+        <v>1581</v>
       </c>
       <c r="D6">
-        <v>1655</v>
+        <v>1261</v>
       </c>
       <c r="E6">
-        <v>1553</v>
+        <v>635.0000000000001</v>
       </c>
       <c r="F6">
-        <v>1369</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -484,16 +484,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="D7">
-        <v>2302</v>
+        <v>1214</v>
       </c>
       <c r="E7">
-        <v>1637</v>
+        <v>945</v>
       </c>
       <c r="F7">
-        <v>1427</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -502,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3360</v>
+        <v>2978</v>
       </c>
       <c r="D8">
-        <v>2371</v>
+        <v>1826</v>
       </c>
       <c r="E8">
-        <v>1829</v>
+        <v>1238</v>
       </c>
       <c r="F8">
-        <v>1805</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -520,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2422</v>
+        <v>2261</v>
       </c>
       <c r="D9">
-        <v>1769</v>
+        <v>1423</v>
       </c>
       <c r="E9">
-        <v>1666</v>
+        <v>806</v>
       </c>
       <c r="F9">
-        <v>1370</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2393</v>
+        <v>1973</v>
       </c>
       <c r="D10">
-        <v>1455</v>
+        <v>1136</v>
       </c>
       <c r="E10">
-        <v>1336</v>
+        <v>751.9999999999999</v>
       </c>
       <c r="F10">
-        <v>1370</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -556,16 +556,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3116</v>
+        <v>2165</v>
       </c>
       <c r="D11">
-        <v>2062</v>
+        <v>1632</v>
       </c>
       <c r="E11">
-        <v>2092</v>
+        <v>915</v>
       </c>
       <c r="F11">
-        <v>1756</v>
+        <v>881.0000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>7060</v>
+        <v>4970</v>
       </c>
       <c r="D12">
-        <v>6049</v>
+        <v>3161</v>
       </c>
       <c r="E12">
-        <v>6106</v>
+        <v>3747</v>
       </c>
       <c r="F12">
-        <v>6450</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -594,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>11830</v>
+        <v>9245</v>
       </c>
       <c r="D13">
-        <v>8587</v>
+        <v>6362</v>
       </c>
       <c r="E13">
-        <v>6413</v>
+        <v>3569</v>
       </c>
       <c r="F13">
-        <v>5699</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>10817</v>
+        <v>6891</v>
       </c>
       <c r="D14">
-        <v>8991</v>
+        <v>4147</v>
       </c>
       <c r="E14">
-        <v>7680</v>
+        <v>4153</v>
       </c>
       <c r="F14">
-        <v>8498</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -630,16 +630,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>12809</v>
+        <v>10052</v>
       </c>
       <c r="D15">
-        <v>9482</v>
+        <v>5622</v>
       </c>
       <c r="E15">
-        <v>8002</v>
+        <v>3442</v>
       </c>
       <c r="F15">
-        <v>7159</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -648,16 +648,16 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>6222</v>
+        <v>4437</v>
       </c>
       <c r="D16">
-        <v>5036</v>
+        <v>2998</v>
       </c>
       <c r="E16">
-        <v>4863</v>
+        <v>2525</v>
       </c>
       <c r="F16">
-        <v>4998</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -666,16 +666,16 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>11569</v>
+        <v>7052</v>
       </c>
       <c r="D17">
-        <v>9695</v>
+        <v>3811</v>
       </c>
       <c r="E17">
-        <v>7754</v>
+        <v>3373</v>
       </c>
       <c r="F17">
-        <v>8058</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>13972</v>
+        <v>12102</v>
       </c>
       <c r="D18">
-        <v>10180</v>
+        <v>6787</v>
       </c>
       <c r="E18">
-        <v>8664</v>
+        <v>4427</v>
       </c>
       <c r="F18">
-        <v>7685</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -702,16 +702,16 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>7011</v>
+        <v>4491</v>
       </c>
       <c r="D19">
-        <v>6343</v>
+        <v>2363</v>
       </c>
       <c r="E19">
-        <v>5551</v>
+        <v>1935</v>
       </c>
       <c r="F19">
-        <v>5156</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +720,16 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>5054</v>
+        <v>3633</v>
       </c>
       <c r="D20">
-        <v>4330</v>
+        <v>2193</v>
       </c>
       <c r="E20">
-        <v>3955</v>
+        <v>2362</v>
       </c>
       <c r="F20">
-        <v>4213</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>7819</v>
+        <v>5867</v>
       </c>
       <c r="D21">
-        <v>6992</v>
+        <v>3956</v>
       </c>
       <c r="E21">
-        <v>5149</v>
+        <v>2316</v>
       </c>
       <c r="F21">
-        <v>5236</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>57260</v>
+        <v>44612</v>
       </c>
       <c r="D22">
-        <v>43612</v>
+        <v>25081</v>
       </c>
       <c r="E22">
-        <v>36127</v>
+        <v>18321</v>
       </c>
       <c r="F22">
-        <v>34560</v>
+        <v>22071</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -776,16 +776,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>47996</v>
+        <v>34545</v>
       </c>
       <c r="D23">
-        <v>36336</v>
+        <v>19969</v>
       </c>
       <c r="E23">
-        <v>30767</v>
+        <v>14460</v>
       </c>
       <c r="F23">
-        <v>30607</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -794,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>52851</v>
+        <v>38753</v>
       </c>
       <c r="D24">
-        <v>43533</v>
+        <v>21905</v>
       </c>
       <c r="E24">
-        <v>38516</v>
+        <v>16772</v>
       </c>
       <c r="F24">
-        <v>39270</v>
+        <v>23965</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -812,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>45668</v>
+        <v>30468</v>
       </c>
       <c r="D25">
-        <v>37716</v>
+        <v>18423</v>
       </c>
       <c r="E25">
-        <v>30540</v>
+        <v>14966</v>
       </c>
       <c r="F25">
-        <v>31562</v>
+        <v>22298</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -830,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>53605</v>
+        <v>33295</v>
       </c>
       <c r="D26">
-        <v>44988</v>
+        <v>19640</v>
       </c>
       <c r="E26">
-        <v>40189</v>
+        <v>15039</v>
       </c>
       <c r="F26">
-        <v>40007</v>
+        <v>21997</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -848,16 +848,16 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>52141</v>
+        <v>39906</v>
       </c>
       <c r="D27">
-        <v>39536</v>
+        <v>24203</v>
       </c>
       <c r="E27">
-        <v>36023</v>
+        <v>14657</v>
       </c>
       <c r="F27">
-        <v>32753</v>
+        <v>19204</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -866,16 +866,16 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>69807</v>
+        <v>44794</v>
       </c>
       <c r="D28">
-        <v>54808.00000000001</v>
+        <v>25011</v>
       </c>
       <c r="E28">
-        <v>45881</v>
+        <v>18311</v>
       </c>
       <c r="F28">
-        <v>43803</v>
+        <v>24770</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -884,16 +884,16 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>76175</v>
+        <v>47249</v>
       </c>
       <c r="D29">
-        <v>59197</v>
+        <v>26639</v>
       </c>
       <c r="E29">
-        <v>49236</v>
+        <v>22658</v>
       </c>
       <c r="F29">
-        <v>48892</v>
+        <v>32418</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -902,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>46279</v>
+        <v>37853</v>
       </c>
       <c r="D30">
-        <v>34852</v>
+        <v>22378</v>
       </c>
       <c r="E30">
-        <v>28986</v>
+        <v>14442</v>
       </c>
       <c r="F30">
-        <v>27321</v>
+        <v>16590</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -920,16 +920,16 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>49278</v>
+        <v>37185</v>
       </c>
       <c r="D31">
-        <v>38218</v>
+        <v>21273</v>
       </c>
       <c r="E31">
-        <v>32595</v>
+        <v>14701</v>
       </c>
       <c r="F31">
-        <v>33519</v>
+        <v>19525</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>228597</v>
+        <v>157634</v>
       </c>
       <c r="D32">
-        <v>194276</v>
+        <v>89950</v>
       </c>
       <c r="E32">
-        <v>159859</v>
+        <v>74461</v>
       </c>
       <c r="F32">
-        <v>163429</v>
+        <v>109534</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -958,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>198738</v>
+        <v>133137</v>
       </c>
       <c r="D33">
-        <v>166787</v>
+        <v>75204</v>
       </c>
       <c r="E33">
-        <v>136845</v>
+        <v>61572</v>
       </c>
       <c r="F33">
-        <v>132649</v>
+        <v>84708</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -976,16 +976,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>192895</v>
+        <v>137988</v>
       </c>
       <c r="D34">
-        <v>159479</v>
+        <v>85678</v>
       </c>
       <c r="E34">
-        <v>142354</v>
+        <v>70361</v>
       </c>
       <c r="F34">
-        <v>151653</v>
+        <v>101232</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -994,16 +994,16 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>198683</v>
+        <v>139137</v>
       </c>
       <c r="D35">
-        <v>155035</v>
+        <v>88520</v>
       </c>
       <c r="E35">
-        <v>132322</v>
+        <v>69845</v>
       </c>
       <c r="F35">
-        <v>141017</v>
+        <v>93267</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1012,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>196473</v>
+        <v>138585</v>
       </c>
       <c r="D36">
-        <v>149263</v>
+        <v>76812</v>
       </c>
       <c r="E36">
-        <v>127237</v>
+        <v>55503</v>
       </c>
       <c r="F36">
-        <v>123549</v>
+        <v>74503</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1030,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>230893</v>
+        <v>158147</v>
       </c>
       <c r="D37">
-        <v>176604</v>
+        <v>87542.99999999999</v>
       </c>
       <c r="E37">
-        <v>143960</v>
+        <v>62957</v>
       </c>
       <c r="F37">
-        <v>138470</v>
+        <v>88581</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1048,16 +1048,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>195609</v>
+        <v>142187</v>
       </c>
       <c r="D38">
-        <v>151776</v>
+        <v>81682</v>
       </c>
       <c r="E38">
-        <v>131544</v>
+        <v>62420</v>
       </c>
       <c r="F38">
-        <v>129813</v>
+        <v>79412</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>258036</v>
+        <v>172849</v>
       </c>
       <c r="D39">
-        <v>212303</v>
+        <v>96252</v>
       </c>
       <c r="E39">
-        <v>185299</v>
+        <v>85084</v>
       </c>
       <c r="F39">
-        <v>193403</v>
+        <v>128058</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>201779</v>
+        <v>125690</v>
       </c>
       <c r="D40">
-        <v>160096</v>
+        <v>73780</v>
       </c>
       <c r="E40">
-        <v>141190</v>
+        <v>60698</v>
       </c>
       <c r="F40">
-        <v>145867</v>
+        <v>94486</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>183007</v>
+        <v>124959</v>
       </c>
       <c r="D41">
-        <v>146328</v>
+        <v>74059</v>
       </c>
       <c r="E41">
-        <v>132035</v>
+        <v>63078</v>
       </c>
       <c r="F41">
-        <v>145069</v>
+        <v>92294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>791667</v>
+        <v>533656</v>
       </c>
       <c r="D42">
-        <v>636003</v>
+        <v>302921</v>
       </c>
       <c r="E42">
-        <v>556404</v>
+        <v>262255</v>
       </c>
       <c r="F42">
-        <v>575161</v>
+        <v>387892</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>895073</v>
+        <v>581265</v>
       </c>
       <c r="D43">
-        <v>690419</v>
+        <v>338205</v>
       </c>
       <c r="E43">
-        <v>584057</v>
+        <v>270890</v>
       </c>
       <c r="F43">
-        <v>598248</v>
+        <v>412974</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1158,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>784071</v>
+        <v>531288</v>
       </c>
       <c r="D44">
-        <v>598928</v>
+        <v>309004</v>
       </c>
       <c r="E44">
-        <v>530727</v>
+        <v>256590</v>
       </c>
       <c r="F44">
-        <v>564862</v>
+        <v>380304</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1176,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>875520</v>
+        <v>604834</v>
       </c>
       <c r="D45">
-        <v>683854</v>
+        <v>361565</v>
       </c>
       <c r="E45">
-        <v>606342</v>
+        <v>299534</v>
       </c>
       <c r="F45">
-        <v>624906</v>
+        <v>418896</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1194,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>813208</v>
+        <v>553418</v>
       </c>
       <c r="D46">
-        <v>665229</v>
+        <v>323043</v>
       </c>
       <c r="E46">
-        <v>573844</v>
+        <v>271830</v>
       </c>
       <c r="F46">
-        <v>598688</v>
+        <v>400598</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1212,16 +1212,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>808625</v>
+        <v>503399</v>
       </c>
       <c r="D47">
-        <v>640829</v>
+        <v>293234</v>
       </c>
       <c r="E47">
-        <v>550142</v>
+        <v>243048</v>
       </c>
       <c r="F47">
-        <v>573538</v>
+        <v>374621</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>763438</v>
+        <v>483818</v>
       </c>
       <c r="D48">
-        <v>632433</v>
+        <v>281236</v>
       </c>
       <c r="E48">
-        <v>525180</v>
+        <v>262226</v>
       </c>
       <c r="F48">
-        <v>549289</v>
+        <v>388002</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1248,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>800267</v>
+        <v>531355</v>
       </c>
       <c r="D49">
-        <v>653746</v>
+        <v>294723</v>
       </c>
       <c r="E49">
-        <v>540232</v>
+        <v>228749</v>
       </c>
       <c r="F49">
-        <v>541771</v>
+        <v>325729</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1266,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>827932</v>
+        <v>587866</v>
       </c>
       <c r="D50">
-        <v>648588</v>
+        <v>332414</v>
       </c>
       <c r="E50">
-        <v>553228</v>
+        <v>256607</v>
       </c>
       <c r="F50">
-        <v>580698</v>
+        <v>360922</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>789316</v>
+        <v>577549</v>
       </c>
       <c r="D51">
-        <v>615103</v>
+        <v>334231</v>
       </c>
       <c r="E51">
-        <v>523978</v>
+        <v>270164</v>
       </c>
       <c r="F51">
-        <v>545800</v>
+        <v>350579</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>4817265</v>
+        <v>3147506</v>
       </c>
       <c r="D52">
-        <v>3930429</v>
+        <v>1841757</v>
       </c>
       <c r="E52">
-        <v>3471120</v>
+        <v>1650707</v>
       </c>
       <c r="F52">
-        <v>3715328</v>
+        <v>2483867</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1322,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>5336424</v>
+        <v>3582874</v>
       </c>
       <c r="D53">
-        <v>4333296</v>
+        <v>2066871</v>
       </c>
       <c r="E53">
-        <v>3737361</v>
+        <v>1768006</v>
       </c>
       <c r="F53">
-        <v>3896793</v>
+        <v>2555800</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1340,16 +1340,16 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>5032146</v>
+        <v>3303580</v>
       </c>
       <c r="D54">
-        <v>4124986</v>
+        <v>1913419</v>
       </c>
       <c r="E54">
-        <v>3608804</v>
+        <v>1722442</v>
       </c>
       <c r="F54">
-        <v>3855179</v>
+        <v>2579636</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>5308698</v>
+        <v>3411682</v>
       </c>
       <c r="D55">
-        <v>4293859</v>
+        <v>1934129</v>
       </c>
       <c r="E55">
-        <v>3715573</v>
+        <v>1703173</v>
       </c>
       <c r="F55">
-        <v>3844341</v>
+        <v>2559577</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1376,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>4969368</v>
+        <v>3391633</v>
       </c>
       <c r="D56">
-        <v>3881041</v>
+        <v>1907944</v>
       </c>
       <c r="E56">
-        <v>3358891</v>
+        <v>1479830</v>
       </c>
       <c r="F56">
-        <v>3426478</v>
+        <v>2186486</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1394,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>4671919</v>
+        <v>3026882</v>
       </c>
       <c r="D57">
-        <v>3832105</v>
+        <v>1660144</v>
       </c>
       <c r="E57">
-        <v>3329276</v>
+        <v>1482359</v>
       </c>
       <c r="F57">
-        <v>3450101</v>
+        <v>2264587</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1412,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>5078314</v>
+        <v>3419773</v>
       </c>
       <c r="D58">
-        <v>4136559</v>
+        <v>1973096</v>
       </c>
       <c r="E58">
-        <v>3591406</v>
+        <v>1694339</v>
       </c>
       <c r="F58">
-        <v>3795022</v>
+        <v>2528168</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1430,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>5176333</v>
+        <v>3382362</v>
       </c>
       <c r="D59">
-        <v>4122422</v>
+        <v>1938994</v>
       </c>
       <c r="E59">
-        <v>3463840</v>
+        <v>1579378</v>
       </c>
       <c r="F59">
-        <v>3512218</v>
+        <v>2347319</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1448,16 +1448,16 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>5342123</v>
+        <v>3620749</v>
       </c>
       <c r="D60">
-        <v>4332956</v>
+        <v>2067517</v>
       </c>
       <c r="E60">
-        <v>3761066</v>
+        <v>1723893</v>
       </c>
       <c r="F60">
-        <v>3967066</v>
+        <v>2556030</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>5024909</v>
+        <v>3333824</v>
       </c>
       <c r="D61">
-        <v>3957141</v>
+        <v>1961485</v>
       </c>
       <c r="E61">
-        <v>3428055</v>
+        <v>1531605</v>
       </c>
       <c r="F61">
-        <v>3498833</v>
+        <v>2276029</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>21753313</v>
+        <v>15220405</v>
       </c>
       <c r="D62">
-        <v>16735887</v>
+        <v>8697740</v>
       </c>
       <c r="E62">
-        <v>14173998</v>
+        <v>6424101</v>
       </c>
       <c r="F62">
-        <v>14267891</v>
+        <v>8955572</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>19311529</v>
+        <v>13380595</v>
       </c>
       <c r="D63">
-        <v>15295698</v>
+        <v>7600578</v>
       </c>
       <c r="E63">
-        <v>13152872</v>
+        <v>6189354</v>
       </c>
       <c r="F63">
-        <v>13631979</v>
+        <v>8949276</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1522,16 +1522,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>19744795</v>
+        <v>12959774</v>
       </c>
       <c r="D64">
-        <v>15901956</v>
+        <v>7323621</v>
       </c>
       <c r="E64">
-        <v>13848370</v>
+        <v>6142502</v>
       </c>
       <c r="F64">
-        <v>14483387</v>
+        <v>9272692</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1540,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>19159269</v>
+        <v>12731498</v>
       </c>
       <c r="D65">
-        <v>15645647</v>
+        <v>7310051</v>
       </c>
       <c r="E65">
-        <v>13455708</v>
+        <v>6306286</v>
       </c>
       <c r="F65">
-        <v>14080770</v>
+        <v>9280530</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1558,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>20337728</v>
+        <v>13517700</v>
       </c>
       <c r="D66">
-        <v>16461809</v>
+        <v>7755645</v>
       </c>
       <c r="E66">
-        <v>14233241</v>
+        <v>6564921</v>
       </c>
       <c r="F66">
-        <v>14929279</v>
+        <v>9758436</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1576,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>19263489</v>
+        <v>12338164</v>
       </c>
       <c r="D67">
-        <v>15892354</v>
+        <v>7175950</v>
       </c>
       <c r="E67">
-        <v>13816539</v>
+        <v>6349308</v>
       </c>
       <c r="F67">
-        <v>14427679</v>
+        <v>9632737</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>21053804</v>
+        <v>14172054</v>
       </c>
       <c r="D68">
-        <v>16187510</v>
+        <v>8433131</v>
       </c>
       <c r="E68">
-        <v>13995894</v>
+        <v>6621433</v>
       </c>
       <c r="F68">
-        <v>14523604</v>
+        <v>9536249</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1612,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>19894796</v>
+        <v>13358300</v>
       </c>
       <c r="D69">
-        <v>15817871</v>
+        <v>7514147</v>
       </c>
       <c r="E69">
-        <v>13443085</v>
+        <v>6204764</v>
       </c>
       <c r="F69">
-        <v>13910436</v>
+        <v>9229338</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1630,16 +1630,16 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>19045118</v>
+        <v>12547617</v>
       </c>
       <c r="D70">
-        <v>15079814</v>
+        <v>7327130</v>
       </c>
       <c r="E70">
-        <v>13174851</v>
+        <v>6333852</v>
       </c>
       <c r="F70">
-        <v>13865212</v>
+        <v>9344222</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1648,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>20291575</v>
+        <v>13401035</v>
       </c>
       <c r="D71">
-        <v>16243343</v>
+        <v>7622295</v>
       </c>
       <c r="E71">
-        <v>13861379</v>
+        <v>6307418</v>
       </c>
       <c r="F71">
-        <v>14354401</v>
+        <v>9312300</v>
       </c>
     </row>
   </sheetData>

--- a/objetivos.xlsx
+++ b/objetivos.xlsx
@@ -394,16 +394,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2751</v>
+        <v>3835</v>
       </c>
       <c r="D2">
-        <v>1405</v>
+        <v>2947</v>
       </c>
       <c r="E2">
-        <v>997</v>
+        <v>2631</v>
       </c>
       <c r="F2">
-        <v>1064</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -412,16 +412,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1653</v>
+        <v>2084</v>
       </c>
       <c r="D3">
-        <v>1149</v>
+        <v>2152</v>
       </c>
       <c r="E3">
-        <v>927</v>
+        <v>2239</v>
       </c>
       <c r="F3">
-        <v>1546</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2493</v>
+        <v>2570</v>
       </c>
       <c r="D4">
-        <v>1219</v>
+        <v>2542</v>
       </c>
       <c r="E4">
-        <v>987</v>
+        <v>2582</v>
       </c>
       <c r="F4">
-        <v>1239</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -448,16 +448,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3191</v>
+        <v>3579</v>
       </c>
       <c r="D5">
-        <v>1897</v>
+        <v>2675</v>
       </c>
       <c r="E5">
-        <v>1043</v>
+        <v>2514</v>
       </c>
       <c r="F5">
-        <v>1065</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -466,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1581</v>
+        <v>1812</v>
       </c>
       <c r="D6">
-        <v>1261</v>
+        <v>1678</v>
       </c>
       <c r="E6">
-        <v>635.0000000000001</v>
+        <v>1665</v>
       </c>
       <c r="F6">
-        <v>756</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -484,16 +484,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2153</v>
+        <v>2255</v>
       </c>
       <c r="D7">
-        <v>1214</v>
+        <v>1677</v>
       </c>
       <c r="E7">
-        <v>945</v>
+        <v>1477</v>
       </c>
       <c r="F7">
-        <v>1202</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -502,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2978</v>
+        <v>3010</v>
       </c>
       <c r="D8">
-        <v>1826</v>
+        <v>2279</v>
       </c>
       <c r="E8">
-        <v>1238</v>
+        <v>1778</v>
       </c>
       <c r="F8">
-        <v>1380</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -520,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2261</v>
+        <v>2460</v>
       </c>
       <c r="D9">
-        <v>1423</v>
+        <v>2096</v>
       </c>
       <c r="E9">
-        <v>806</v>
+        <v>1669</v>
       </c>
       <c r="F9">
-        <v>806</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1973</v>
+        <v>2393</v>
       </c>
       <c r="D10">
-        <v>1136</v>
+        <v>1890</v>
       </c>
       <c r="E10">
-        <v>751.9999999999999</v>
+        <v>1503</v>
       </c>
       <c r="F10">
-        <v>614</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -556,16 +556,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2165</v>
+        <v>2201</v>
       </c>
       <c r="D11">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E11">
-        <v>915</v>
+        <v>1842</v>
       </c>
       <c r="F11">
-        <v>881.0000000000001</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>4970</v>
+        <v>5462</v>
       </c>
       <c r="D12">
-        <v>3161</v>
+        <v>5174</v>
       </c>
       <c r="E12">
-        <v>3747</v>
+        <v>5548</v>
       </c>
       <c r="F12">
-        <v>5053</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -594,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9245</v>
+        <v>9893</v>
       </c>
       <c r="D13">
-        <v>6362</v>
+        <v>8587</v>
       </c>
       <c r="E13">
-        <v>3569</v>
+        <v>7880</v>
       </c>
       <c r="F13">
-        <v>3466</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>6891</v>
+        <v>8449</v>
       </c>
       <c r="D14">
-        <v>4147</v>
+        <v>6993</v>
       </c>
       <c r="E14">
-        <v>4153</v>
+        <v>7313</v>
       </c>
       <c r="F14">
-        <v>6150</v>
+        <v>7312.999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -630,16 +630,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>10052</v>
+        <v>11767</v>
       </c>
       <c r="D15">
-        <v>5622</v>
+        <v>9057</v>
       </c>
       <c r="E15">
-        <v>3442</v>
+        <v>8961</v>
       </c>
       <c r="F15">
-        <v>3638</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -648,16 +648,16 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>4437</v>
+        <v>5439</v>
       </c>
       <c r="D16">
-        <v>2998</v>
+        <v>4378</v>
       </c>
       <c r="E16">
-        <v>2525</v>
+        <v>4723</v>
       </c>
       <c r="F16">
-        <v>3095</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -666,16 +666,16 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>7052</v>
+        <v>7947</v>
       </c>
       <c r="D17">
-        <v>3811</v>
+        <v>6739</v>
       </c>
       <c r="E17">
-        <v>3373</v>
+        <v>7133</v>
       </c>
       <c r="F17">
-        <v>4527</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>12102</v>
+        <v>12425</v>
       </c>
       <c r="D18">
-        <v>6787</v>
+        <v>10290</v>
       </c>
       <c r="E18">
-        <v>4427</v>
+        <v>8565</v>
       </c>
       <c r="F18">
-        <v>4816</v>
+        <v>8565.000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -702,16 +702,16 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>4491</v>
+        <v>6518</v>
       </c>
       <c r="D19">
-        <v>2363</v>
+        <v>6141</v>
       </c>
       <c r="E19">
-        <v>1935</v>
+        <v>6163</v>
       </c>
       <c r="F19">
-        <v>2838</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +720,16 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>3633</v>
+        <v>4018</v>
       </c>
       <c r="D20">
-        <v>2193</v>
+        <v>3583</v>
       </c>
       <c r="E20">
-        <v>2362</v>
+        <v>3483</v>
       </c>
       <c r="F20">
-        <v>2900</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>5867</v>
+        <v>6535</v>
       </c>
       <c r="D21">
-        <v>3956</v>
+        <v>6525</v>
       </c>
       <c r="E21">
-        <v>2316</v>
+        <v>5861</v>
       </c>
       <c r="F21">
-        <v>2757</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>44612</v>
+        <v>51177</v>
       </c>
       <c r="D22">
-        <v>25081</v>
+        <v>38946</v>
       </c>
       <c r="E22">
-        <v>18321</v>
+        <v>38934</v>
       </c>
       <c r="F22">
-        <v>22071</v>
+        <v>38934</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -776,16 +776,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>34545</v>
+        <v>38410</v>
       </c>
       <c r="D23">
-        <v>19969</v>
+        <v>32735</v>
       </c>
       <c r="E23">
-        <v>14460</v>
+        <v>31997</v>
       </c>
       <c r="F23">
-        <v>19665</v>
+        <v>31997</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -794,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>38753</v>
+        <v>47925</v>
       </c>
       <c r="D24">
-        <v>21905</v>
+        <v>41305</v>
       </c>
       <c r="E24">
-        <v>16772</v>
+        <v>41683</v>
       </c>
       <c r="F24">
-        <v>23965</v>
+        <v>41683</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -812,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>30468</v>
+        <v>33144</v>
       </c>
       <c r="D25">
-        <v>18423</v>
+        <v>30026</v>
       </c>
       <c r="E25">
-        <v>14966</v>
+        <v>31686</v>
       </c>
       <c r="F25">
-        <v>22298</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -830,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>33295</v>
+        <v>47096</v>
       </c>
       <c r="D26">
-        <v>19640</v>
+        <v>42000</v>
       </c>
       <c r="E26">
-        <v>15039</v>
+        <v>42071</v>
       </c>
       <c r="F26">
-        <v>21997</v>
+        <v>42071</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -848,16 +848,16 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>39906</v>
+        <v>43924</v>
       </c>
       <c r="D27">
-        <v>24203</v>
+        <v>38847</v>
       </c>
       <c r="E27">
-        <v>14657</v>
+        <v>36579</v>
       </c>
       <c r="F27">
-        <v>19204</v>
+        <v>36579</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -866,16 +866,16 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>44794</v>
+        <v>55219</v>
       </c>
       <c r="D28">
-        <v>25011</v>
+        <v>46995</v>
       </c>
       <c r="E28">
-        <v>18311</v>
+        <v>46732</v>
       </c>
       <c r="F28">
-        <v>24770</v>
+        <v>46732</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -884,16 +884,16 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>47249</v>
+        <v>55013</v>
       </c>
       <c r="D29">
-        <v>26639</v>
+        <v>49290</v>
       </c>
       <c r="E29">
-        <v>22658</v>
+        <v>48902</v>
       </c>
       <c r="F29">
-        <v>32418</v>
+        <v>48902.00000000001</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -902,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>37853</v>
+        <v>42909</v>
       </c>
       <c r="D30">
-        <v>22378</v>
+        <v>34077</v>
       </c>
       <c r="E30">
-        <v>14442</v>
+        <v>32983</v>
       </c>
       <c r="F30">
-        <v>16590</v>
+        <v>32983</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -920,16 +920,16 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>37185</v>
+        <v>41512</v>
       </c>
       <c r="D31">
-        <v>21273</v>
+        <v>37725</v>
       </c>
       <c r="E31">
-        <v>14701</v>
+        <v>35671</v>
       </c>
       <c r="F31">
-        <v>19525</v>
+        <v>35671</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>157634</v>
+        <v>185859</v>
       </c>
       <c r="D32">
-        <v>89950</v>
+        <v>165996</v>
       </c>
       <c r="E32">
-        <v>74461</v>
+        <v>167984</v>
       </c>
       <c r="F32">
-        <v>109534</v>
+        <v>167984</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -958,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>133137</v>
+        <v>167679</v>
       </c>
       <c r="D33">
-        <v>75204</v>
+        <v>150032</v>
       </c>
       <c r="E33">
-        <v>61572</v>
+        <v>145026</v>
       </c>
       <c r="F33">
-        <v>84708</v>
+        <v>145026</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -976,16 +976,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>137988</v>
+        <v>163877</v>
       </c>
       <c r="D34">
-        <v>85678</v>
+        <v>138850</v>
       </c>
       <c r="E34">
-        <v>70361</v>
+        <v>141929</v>
       </c>
       <c r="F34">
-        <v>101232</v>
+        <v>141929</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -994,16 +994,16 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>139137</v>
+        <v>161416</v>
       </c>
       <c r="D35">
-        <v>88520</v>
+        <v>140107</v>
       </c>
       <c r="E35">
-        <v>69845</v>
+        <v>137148</v>
       </c>
       <c r="F35">
-        <v>93267</v>
+        <v>137148</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1012,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>138585</v>
+        <v>164429</v>
       </c>
       <c r="D36">
-        <v>76812</v>
+        <v>139516</v>
       </c>
       <c r="E36">
-        <v>55503</v>
+        <v>135614</v>
       </c>
       <c r="F36">
-        <v>74503</v>
+        <v>135614</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1030,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>158147</v>
+        <v>175189</v>
       </c>
       <c r="D37">
-        <v>87542.99999999999</v>
+        <v>157128</v>
       </c>
       <c r="E37">
-        <v>62957</v>
+        <v>153534</v>
       </c>
       <c r="F37">
-        <v>88581</v>
+        <v>153534</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1048,16 +1048,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>142187</v>
+        <v>172319</v>
       </c>
       <c r="D38">
-        <v>81682</v>
+        <v>145323</v>
       </c>
       <c r="E38">
-        <v>62420</v>
+        <v>138888</v>
       </c>
       <c r="F38">
-        <v>79412</v>
+        <v>138888</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>172849</v>
+        <v>216599</v>
       </c>
       <c r="D39">
-        <v>96252</v>
+        <v>186320</v>
       </c>
       <c r="E39">
-        <v>85084</v>
+        <v>191236</v>
       </c>
       <c r="F39">
-        <v>128058</v>
+        <v>191236</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>125690</v>
+        <v>155566</v>
       </c>
       <c r="D40">
-        <v>73780</v>
+        <v>140411</v>
       </c>
       <c r="E40">
-        <v>60698</v>
+        <v>142517</v>
       </c>
       <c r="F40">
-        <v>94486</v>
+        <v>142517</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>124959</v>
+        <v>151182</v>
       </c>
       <c r="D41">
-        <v>74059</v>
+        <v>136016</v>
       </c>
       <c r="E41">
-        <v>63078</v>
+        <v>133826</v>
       </c>
       <c r="F41">
-        <v>92294</v>
+        <v>133826</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>533656</v>
+        <v>645031</v>
       </c>
       <c r="D42">
-        <v>302921</v>
+        <v>564455</v>
       </c>
       <c r="E42">
-        <v>262255</v>
+        <v>574069</v>
       </c>
       <c r="F42">
-        <v>387892</v>
+        <v>574069</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>581265</v>
+        <v>695578</v>
       </c>
       <c r="D43">
-        <v>338205</v>
+        <v>621331</v>
       </c>
       <c r="E43">
-        <v>270890</v>
+        <v>619055</v>
       </c>
       <c r="F43">
-        <v>412974</v>
+        <v>619055</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1158,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>531288</v>
+        <v>628063</v>
       </c>
       <c r="D44">
-        <v>309004</v>
+        <v>563468</v>
       </c>
       <c r="E44">
-        <v>256590</v>
+        <v>554620</v>
       </c>
       <c r="F44">
-        <v>380304</v>
+        <v>554620</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1176,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>604834</v>
+        <v>737526</v>
       </c>
       <c r="D45">
-        <v>361565</v>
+        <v>650818</v>
       </c>
       <c r="E45">
-        <v>299534</v>
+        <v>634757</v>
       </c>
       <c r="F45">
-        <v>418896</v>
+        <v>634757</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1194,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>553418</v>
+        <v>660306</v>
       </c>
       <c r="D46">
-        <v>323043</v>
+        <v>589749</v>
       </c>
       <c r="E46">
-        <v>271830</v>
+        <v>596967</v>
       </c>
       <c r="F46">
-        <v>400598</v>
+        <v>596967</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1212,16 +1212,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>503399</v>
+        <v>607784</v>
       </c>
       <c r="D47">
-        <v>293234</v>
+        <v>564193</v>
       </c>
       <c r="E47">
-        <v>243048</v>
+        <v>571795</v>
       </c>
       <c r="F47">
-        <v>374621</v>
+        <v>571795</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>483818</v>
+        <v>582580</v>
       </c>
       <c r="D48">
-        <v>281236</v>
+        <v>526848</v>
       </c>
       <c r="E48">
-        <v>262226</v>
+        <v>540034</v>
       </c>
       <c r="F48">
-        <v>388002</v>
+        <v>540034</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1248,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>531355</v>
+        <v>643135</v>
       </c>
       <c r="D49">
-        <v>294723</v>
+        <v>581370</v>
       </c>
       <c r="E49">
-        <v>228749</v>
+        <v>574407</v>
       </c>
       <c r="F49">
-        <v>325729</v>
+        <v>574407</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1266,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>587866</v>
+        <v>689522</v>
       </c>
       <c r="D50">
-        <v>332414</v>
+        <v>604018</v>
       </c>
       <c r="E50">
-        <v>256607</v>
+        <v>591133</v>
       </c>
       <c r="F50">
-        <v>360922</v>
+        <v>591133</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>577549</v>
+        <v>659741</v>
       </c>
       <c r="D51">
-        <v>334231</v>
+        <v>561651</v>
       </c>
       <c r="E51">
-        <v>270164</v>
+        <v>542646</v>
       </c>
       <c r="F51">
-        <v>350579</v>
+        <v>542646</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>3147506</v>
+        <v>3804889</v>
       </c>
       <c r="D52">
-        <v>1841757</v>
+        <v>3494858</v>
       </c>
       <c r="E52">
-        <v>1650707</v>
+        <v>3547717</v>
       </c>
       <c r="F52">
-        <v>2483867</v>
+        <v>3547717</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1322,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>3582874</v>
+        <v>4336664</v>
       </c>
       <c r="D53">
-        <v>2066871</v>
+        <v>3811982</v>
       </c>
       <c r="E53">
-        <v>1768006</v>
+        <v>3866924</v>
       </c>
       <c r="F53">
-        <v>2555800</v>
+        <v>3866924</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1340,16 +1340,16 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>3303580</v>
+        <v>4003291</v>
       </c>
       <c r="D54">
-        <v>1913419</v>
+        <v>3675316</v>
       </c>
       <c r="E54">
-        <v>1722442</v>
+        <v>3742681</v>
       </c>
       <c r="F54">
-        <v>2579636</v>
+        <v>3742681</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>3411682</v>
+        <v>4258048</v>
       </c>
       <c r="D55">
-        <v>1934129</v>
+        <v>3800358</v>
       </c>
       <c r="E55">
-        <v>1703173</v>
+        <v>3867379</v>
       </c>
       <c r="F55">
-        <v>2559577</v>
+        <v>3867379</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1376,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>3391633</v>
+        <v>4052312</v>
       </c>
       <c r="D56">
-        <v>1907944</v>
+        <v>3568820</v>
       </c>
       <c r="E56">
-        <v>1479830</v>
+        <v>3549169</v>
       </c>
       <c r="F56">
-        <v>2186486</v>
+        <v>3549169</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1394,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>3026882</v>
+        <v>3745769</v>
       </c>
       <c r="D57">
-        <v>1660144</v>
+        <v>3439714</v>
       </c>
       <c r="E57">
-        <v>1482359</v>
+        <v>3474051</v>
       </c>
       <c r="F57">
-        <v>2264587</v>
+        <v>3474051</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1412,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>3419773</v>
+        <v>4062472</v>
       </c>
       <c r="D58">
-        <v>1973096</v>
+        <v>3723660</v>
       </c>
       <c r="E58">
-        <v>1694339</v>
+        <v>3748537</v>
       </c>
       <c r="F58">
-        <v>2528168</v>
+        <v>3748537</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1430,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>3382362</v>
+        <v>4090624</v>
       </c>
       <c r="D59">
-        <v>1938994</v>
+        <v>3622972</v>
       </c>
       <c r="E59">
-        <v>1579378</v>
+        <v>3660632</v>
       </c>
       <c r="F59">
-        <v>2347319</v>
+        <v>3660632</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1448,16 +1448,16 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>3620749</v>
+        <v>4386677</v>
       </c>
       <c r="D60">
-        <v>2067517</v>
+        <v>3897420</v>
       </c>
       <c r="E60">
-        <v>1723893</v>
+        <v>3930628</v>
       </c>
       <c r="F60">
-        <v>2556030</v>
+        <v>3930628</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3333824</v>
+        <v>4038748</v>
       </c>
       <c r="D61">
-        <v>1961485</v>
+        <v>3719309</v>
       </c>
       <c r="E61">
-        <v>1531605</v>
+        <v>3685500</v>
       </c>
       <c r="F61">
-        <v>2276029</v>
+        <v>3685500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>15220405</v>
+        <v>17774173</v>
       </c>
       <c r="D62">
-        <v>8697740</v>
+        <v>15439728</v>
       </c>
       <c r="E62">
-        <v>6424101</v>
+        <v>15205510</v>
       </c>
       <c r="F62">
-        <v>8955572</v>
+        <v>15205510</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>13380595</v>
+        <v>15727129</v>
       </c>
       <c r="D63">
-        <v>7600578</v>
+        <v>13945897</v>
       </c>
       <c r="E63">
-        <v>6189354</v>
+        <v>13916765</v>
       </c>
       <c r="F63">
-        <v>8949276</v>
+        <v>13916765</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1522,16 +1522,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>12959774</v>
+        <v>15845041</v>
       </c>
       <c r="D64">
-        <v>7323621</v>
+        <v>14394275</v>
       </c>
       <c r="E64">
-        <v>6142502</v>
+        <v>14486411</v>
       </c>
       <c r="F64">
-        <v>9272692</v>
+        <v>14486411</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1540,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>12731498</v>
+        <v>15545951</v>
       </c>
       <c r="D65">
-        <v>7310051</v>
+        <v>13997860</v>
       </c>
       <c r="E65">
-        <v>6306286</v>
+        <v>14032933</v>
       </c>
       <c r="F65">
-        <v>9280530</v>
+        <v>14032933</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1558,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>13517700</v>
+        <v>16130212</v>
       </c>
       <c r="D66">
-        <v>7755645</v>
+        <v>14678348</v>
       </c>
       <c r="E66">
-        <v>6564921</v>
+        <v>14803753</v>
       </c>
       <c r="F66">
-        <v>9758436</v>
+        <v>14803753</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1576,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>12338164</v>
+        <v>15338276</v>
       </c>
       <c r="D67">
-        <v>7175950</v>
+        <v>14110270</v>
       </c>
       <c r="E67">
-        <v>6349308</v>
+        <v>14315546</v>
       </c>
       <c r="F67">
-        <v>9632737</v>
+        <v>14315546</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>14172054</v>
+        <v>16806310</v>
       </c>
       <c r="D68">
-        <v>8433131</v>
+        <v>14837736</v>
       </c>
       <c r="E68">
-        <v>6621433</v>
+        <v>14716355</v>
       </c>
       <c r="F68">
-        <v>9536249</v>
+        <v>14716355</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1612,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>13358300</v>
+        <v>15840509</v>
       </c>
       <c r="D69">
-        <v>7514147</v>
+        <v>14123315</v>
       </c>
       <c r="E69">
-        <v>6204764</v>
+        <v>14162514</v>
       </c>
       <c r="F69">
-        <v>9229338</v>
+        <v>14162514</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1630,16 +1630,16 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>12547617</v>
+        <v>15197032</v>
       </c>
       <c r="D70">
-        <v>7327130</v>
+        <v>13774967</v>
       </c>
       <c r="E70">
-        <v>6333852</v>
+        <v>13751191</v>
       </c>
       <c r="F70">
-        <v>9344222</v>
+        <v>13751191</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1648,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>13401035</v>
+        <v>16328024</v>
       </c>
       <c r="D71">
-        <v>7622295</v>
+        <v>14652717</v>
       </c>
       <c r="E71">
-        <v>6307418</v>
+        <v>14576538</v>
       </c>
       <c r="F71">
-        <v>9312300</v>
+        <v>14576538</v>
       </c>
     </row>
   </sheetData>

--- a/objetivos.xlsx
+++ b/objetivos.xlsx
@@ -394,16 +394,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3835</v>
+        <v>2183</v>
       </c>
       <c r="D2">
-        <v>2947</v>
+        <v>1057</v>
       </c>
       <c r="E2">
-        <v>2631</v>
+        <v>865</v>
       </c>
       <c r="F2">
-        <v>2631</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -412,16 +412,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2084</v>
+        <v>1125</v>
       </c>
       <c r="D3">
-        <v>2152</v>
+        <v>732.9999999999999</v>
       </c>
       <c r="E3">
-        <v>2239</v>
+        <v>832</v>
       </c>
       <c r="F3">
-        <v>2239</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2570</v>
+        <v>2016</v>
       </c>
       <c r="D4">
-        <v>2542</v>
+        <v>1190</v>
       </c>
       <c r="E4">
-        <v>2582</v>
+        <v>805</v>
       </c>
       <c r="F4">
-        <v>2582</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -448,16 +448,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3579</v>
+        <v>2411</v>
       </c>
       <c r="D5">
-        <v>2675</v>
+        <v>1251</v>
       </c>
       <c r="E5">
-        <v>2514</v>
+        <v>1251</v>
       </c>
       <c r="F5">
-        <v>2514</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -466,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1812</v>
+        <v>1220</v>
       </c>
       <c r="D6">
-        <v>1678</v>
+        <v>1047</v>
       </c>
       <c r="E6">
-        <v>1665</v>
+        <v>582.0000000000001</v>
       </c>
       <c r="F6">
-        <v>1665</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -484,16 +484,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2255</v>
+        <v>1866</v>
       </c>
       <c r="D7">
-        <v>1677</v>
+        <v>922</v>
       </c>
       <c r="E7">
-        <v>1477</v>
+        <v>922</v>
       </c>
       <c r="F7">
-        <v>1477</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -502,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>3010</v>
+        <v>2271</v>
       </c>
       <c r="D8">
-        <v>2279</v>
+        <v>1575</v>
       </c>
       <c r="E8">
-        <v>1778</v>
+        <v>1330</v>
       </c>
       <c r="F8">
-        <v>1778</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -520,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2460</v>
+        <v>1798</v>
       </c>
       <c r="D9">
-        <v>2096</v>
+        <v>1483</v>
       </c>
       <c r="E9">
-        <v>1669</v>
+        <v>995.0000000000001</v>
       </c>
       <c r="F9">
-        <v>1669</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2393</v>
+        <v>1688</v>
       </c>
       <c r="D10">
-        <v>1890</v>
+        <v>904</v>
       </c>
       <c r="E10">
-        <v>1503</v>
+        <v>581.9999999999999</v>
       </c>
       <c r="F10">
-        <v>1503</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -556,16 +556,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2201</v>
+        <v>2009</v>
       </c>
       <c r="D11">
-        <v>1631</v>
+        <v>1333</v>
       </c>
       <c r="E11">
-        <v>1842</v>
+        <v>935</v>
       </c>
       <c r="F11">
-        <v>1842</v>
+        <v>935.0000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5462</v>
+        <v>4554</v>
       </c>
       <c r="D12">
-        <v>5174</v>
+        <v>3104</v>
       </c>
       <c r="E12">
-        <v>5548</v>
+        <v>3120</v>
       </c>
       <c r="F12">
-        <v>5548</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -594,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>9893</v>
+        <v>9025</v>
       </c>
       <c r="D13">
-        <v>8587</v>
+        <v>5455</v>
       </c>
       <c r="E13">
-        <v>7880</v>
+        <v>3754</v>
       </c>
       <c r="F13">
-        <v>7880</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>8449</v>
+        <v>6869</v>
       </c>
       <c r="D14">
-        <v>6993</v>
+        <v>4077</v>
       </c>
       <c r="E14">
-        <v>7313</v>
+        <v>3756</v>
       </c>
       <c r="F14">
-        <v>7312.999999999999</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -630,16 +630,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>11767</v>
+        <v>9909</v>
       </c>
       <c r="D15">
-        <v>9057</v>
+        <v>5331</v>
       </c>
       <c r="E15">
-        <v>8961</v>
+        <v>3574</v>
       </c>
       <c r="F15">
-        <v>8961</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -648,16 +648,16 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>5439</v>
+        <v>4922</v>
       </c>
       <c r="D16">
-        <v>4378</v>
+        <v>2768</v>
       </c>
       <c r="E16">
-        <v>4723</v>
+        <v>2504</v>
       </c>
       <c r="F16">
-        <v>4723</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -666,16 +666,16 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>7947</v>
+        <v>6622</v>
       </c>
       <c r="D17">
-        <v>6739</v>
+        <v>4292</v>
       </c>
       <c r="E17">
-        <v>7133</v>
+        <v>3304</v>
       </c>
       <c r="F17">
-        <v>7133</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>12425</v>
+        <v>11939</v>
       </c>
       <c r="D18">
-        <v>10290</v>
+        <v>7304</v>
       </c>
       <c r="E18">
-        <v>8565</v>
+        <v>5656</v>
       </c>
       <c r="F18">
-        <v>8565.000000000002</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -702,16 +702,16 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>6518</v>
+        <v>4211</v>
       </c>
       <c r="D19">
-        <v>6141</v>
+        <v>2485</v>
       </c>
       <c r="E19">
-        <v>6163</v>
+        <v>1717</v>
       </c>
       <c r="F19">
-        <v>6163</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +720,16 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>4018</v>
+        <v>4175</v>
       </c>
       <c r="D20">
-        <v>3583</v>
+        <v>2156</v>
       </c>
       <c r="E20">
-        <v>3483</v>
+        <v>2028</v>
       </c>
       <c r="F20">
-        <v>3483</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>6535</v>
+        <v>5120</v>
       </c>
       <c r="D21">
-        <v>6525</v>
+        <v>3216</v>
       </c>
       <c r="E21">
-        <v>5861</v>
+        <v>2331</v>
       </c>
       <c r="F21">
-        <v>5861</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>51177</v>
+        <v>42719</v>
       </c>
       <c r="D22">
-        <v>38946</v>
+        <v>24469</v>
       </c>
       <c r="E22">
-        <v>38934</v>
+        <v>20229</v>
       </c>
       <c r="F22">
-        <v>38934</v>
+        <v>20229</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -776,16 +776,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>38410</v>
+        <v>33099</v>
       </c>
       <c r="D23">
-        <v>32735</v>
+        <v>18741</v>
       </c>
       <c r="E23">
-        <v>31997</v>
+        <v>16607</v>
       </c>
       <c r="F23">
-        <v>31997</v>
+        <v>16607</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -794,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>47925</v>
+        <v>34471</v>
       </c>
       <c r="D24">
-        <v>41305</v>
+        <v>21497</v>
       </c>
       <c r="E24">
-        <v>41683</v>
+        <v>16881</v>
       </c>
       <c r="F24">
-        <v>41683</v>
+        <v>16881</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -812,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>33144</v>
+        <v>28745</v>
       </c>
       <c r="D25">
-        <v>30026</v>
+        <v>18549</v>
       </c>
       <c r="E25">
-        <v>31686</v>
+        <v>14796</v>
       </c>
       <c r="F25">
-        <v>31686</v>
+        <v>14796</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -830,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>47096</v>
+        <v>34311</v>
       </c>
       <c r="D26">
-        <v>42000</v>
+        <v>18481</v>
       </c>
       <c r="E26">
-        <v>42071</v>
+        <v>15022</v>
       </c>
       <c r="F26">
-        <v>42071</v>
+        <v>15022</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -848,16 +848,16 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>43924</v>
+        <v>36235</v>
       </c>
       <c r="D27">
-        <v>38847</v>
+        <v>21648</v>
       </c>
       <c r="E27">
-        <v>36579</v>
+        <v>16610</v>
       </c>
       <c r="F27">
-        <v>36579</v>
+        <v>16610</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -866,16 +866,16 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>55219</v>
+        <v>45694</v>
       </c>
       <c r="D28">
-        <v>46995</v>
+        <v>23376</v>
       </c>
       <c r="E28">
-        <v>46732</v>
+        <v>20470</v>
       </c>
       <c r="F28">
-        <v>46732</v>
+        <v>20470</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -884,16 +884,16 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>55013</v>
+        <v>44414</v>
       </c>
       <c r="D29">
-        <v>49290</v>
+        <v>27561</v>
       </c>
       <c r="E29">
-        <v>48902</v>
+        <v>22798</v>
       </c>
       <c r="F29">
-        <v>48902.00000000001</v>
+        <v>22798</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -902,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>42909</v>
+        <v>34756</v>
       </c>
       <c r="D30">
-        <v>34077</v>
+        <v>21928</v>
       </c>
       <c r="E30">
-        <v>32983</v>
+        <v>15991</v>
       </c>
       <c r="F30">
-        <v>32983</v>
+        <v>15991</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -920,16 +920,16 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>41512</v>
+        <v>33489</v>
       </c>
       <c r="D31">
-        <v>37725</v>
+        <v>20501</v>
       </c>
       <c r="E31">
-        <v>35671</v>
+        <v>15609</v>
       </c>
       <c r="F31">
-        <v>35671</v>
+        <v>15609</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>185859</v>
+        <v>151247</v>
       </c>
       <c r="D32">
-        <v>165996</v>
+        <v>88251</v>
       </c>
       <c r="E32">
-        <v>167984</v>
+        <v>74379</v>
       </c>
       <c r="F32">
-        <v>167984</v>
+        <v>74379</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -958,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>167679</v>
+        <v>127623</v>
       </c>
       <c r="D33">
-        <v>150032</v>
+        <v>74884</v>
       </c>
       <c r="E33">
-        <v>145026</v>
+        <v>62201</v>
       </c>
       <c r="F33">
-        <v>145026</v>
+        <v>62200.99999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -976,16 +976,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>163877</v>
+        <v>136647</v>
       </c>
       <c r="D34">
-        <v>138850</v>
+        <v>82326</v>
       </c>
       <c r="E34">
-        <v>141929</v>
+        <v>74240</v>
       </c>
       <c r="F34">
-        <v>141929</v>
+        <v>74240</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -994,16 +994,16 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>161416</v>
+        <v>131662</v>
       </c>
       <c r="D35">
-        <v>140107</v>
+        <v>82495</v>
       </c>
       <c r="E35">
-        <v>137148</v>
+        <v>71579</v>
       </c>
       <c r="F35">
-        <v>137148</v>
+        <v>71579</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1012,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>164429</v>
+        <v>128614</v>
       </c>
       <c r="D36">
-        <v>139516</v>
+        <v>72374</v>
       </c>
       <c r="E36">
-        <v>135614</v>
+        <v>61437</v>
       </c>
       <c r="F36">
-        <v>135614</v>
+        <v>61437</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1030,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>175189</v>
+        <v>143452</v>
       </c>
       <c r="D37">
-        <v>157128</v>
+        <v>80258.99999999999</v>
       </c>
       <c r="E37">
-        <v>153534</v>
+        <v>71119</v>
       </c>
       <c r="F37">
-        <v>153534</v>
+        <v>71119</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1048,16 +1048,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>172319</v>
+        <v>137485</v>
       </c>
       <c r="D38">
-        <v>145323</v>
+        <v>79572</v>
       </c>
       <c r="E38">
-        <v>138888</v>
+        <v>69417</v>
       </c>
       <c r="F38">
-        <v>138888</v>
+        <v>69417.00000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>216599</v>
+        <v>165585</v>
       </c>
       <c r="D39">
-        <v>186320</v>
+        <v>98978</v>
       </c>
       <c r="E39">
-        <v>191236</v>
+        <v>82339</v>
       </c>
       <c r="F39">
-        <v>191236</v>
+        <v>82339</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>155566</v>
+        <v>120210</v>
       </c>
       <c r="D40">
-        <v>140411</v>
+        <v>70782</v>
       </c>
       <c r="E40">
-        <v>142517</v>
+        <v>64163</v>
       </c>
       <c r="F40">
-        <v>142517</v>
+        <v>64163</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>151182</v>
+        <v>120309</v>
       </c>
       <c r="D41">
-        <v>136016</v>
+        <v>74170</v>
       </c>
       <c r="E41">
-        <v>133826</v>
+        <v>63266</v>
       </c>
       <c r="F41">
-        <v>133826</v>
+        <v>63266</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>645031</v>
+        <v>504459</v>
       </c>
       <c r="D42">
-        <v>564455</v>
+        <v>300525</v>
       </c>
       <c r="E42">
-        <v>574069</v>
+        <v>261576</v>
       </c>
       <c r="F42">
-        <v>574069</v>
+        <v>261576</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>695578</v>
+        <v>547305</v>
       </c>
       <c r="D43">
-        <v>621331</v>
+        <v>325036</v>
       </c>
       <c r="E43">
-        <v>619055</v>
+        <v>278828</v>
       </c>
       <c r="F43">
-        <v>619055</v>
+        <v>278828</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1158,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>628063</v>
+        <v>496489</v>
       </c>
       <c r="D44">
-        <v>563468</v>
+        <v>299645</v>
       </c>
       <c r="E44">
-        <v>554620</v>
+        <v>266057</v>
       </c>
       <c r="F44">
-        <v>554620</v>
+        <v>266057</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1176,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>737526</v>
+        <v>595700</v>
       </c>
       <c r="D45">
-        <v>650818</v>
+        <v>365309</v>
       </c>
       <c r="E45">
-        <v>634757</v>
+        <v>306919</v>
       </c>
       <c r="F45">
-        <v>634757</v>
+        <v>306918.9999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1194,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>660306</v>
+        <v>531122</v>
       </c>
       <c r="D46">
-        <v>589749</v>
+        <v>313065</v>
       </c>
       <c r="E46">
-        <v>596967</v>
+        <v>266355</v>
       </c>
       <c r="F46">
-        <v>596967</v>
+        <v>266355</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1212,16 +1212,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>607784</v>
+        <v>489792</v>
       </c>
       <c r="D47">
-        <v>564193</v>
+        <v>285248</v>
       </c>
       <c r="E47">
-        <v>571795</v>
+        <v>244148</v>
       </c>
       <c r="F47">
-        <v>571795</v>
+        <v>244148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>582580</v>
+        <v>465461</v>
       </c>
       <c r="D48">
-        <v>526848</v>
+        <v>276555</v>
       </c>
       <c r="E48">
-        <v>540034</v>
+        <v>258985</v>
       </c>
       <c r="F48">
-        <v>540034</v>
+        <v>258985</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1248,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>643135</v>
+        <v>506033</v>
       </c>
       <c r="D49">
-        <v>581370</v>
+        <v>284706</v>
       </c>
       <c r="E49">
-        <v>574407</v>
+        <v>241180</v>
       </c>
       <c r="F49">
-        <v>574407</v>
+        <v>241180</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1266,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>689522</v>
+        <v>542366</v>
       </c>
       <c r="D50">
-        <v>604018</v>
+        <v>323980</v>
       </c>
       <c r="E50">
-        <v>591133</v>
+        <v>264231</v>
       </c>
       <c r="F50">
-        <v>591133</v>
+        <v>264231</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>659741</v>
+        <v>551049</v>
       </c>
       <c r="D51">
-        <v>561651</v>
+        <v>327149</v>
       </c>
       <c r="E51">
-        <v>542646</v>
+        <v>290598</v>
       </c>
       <c r="F51">
-        <v>542646</v>
+        <v>290598</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>3804889</v>
+        <v>2991248</v>
       </c>
       <c r="D52">
-        <v>3494858</v>
+        <v>1844049</v>
       </c>
       <c r="E52">
-        <v>3547717</v>
+        <v>1617377</v>
       </c>
       <c r="F52">
-        <v>3547717</v>
+        <v>1617377</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1322,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>4336664</v>
+        <v>3415885</v>
       </c>
       <c r="D53">
-        <v>3811982</v>
+        <v>2022069</v>
       </c>
       <c r="E53">
-        <v>3866924</v>
+        <v>1769394</v>
       </c>
       <c r="F53">
-        <v>3866924</v>
+        <v>1769394</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1340,16 +1340,16 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>4003291</v>
+        <v>3147973</v>
       </c>
       <c r="D54">
-        <v>3675316</v>
+        <v>1899689</v>
       </c>
       <c r="E54">
-        <v>3742681</v>
+        <v>1659393</v>
       </c>
       <c r="F54">
-        <v>3742681</v>
+        <v>1659393</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>4258048</v>
+        <v>3266428</v>
       </c>
       <c r="D55">
-        <v>3800358</v>
+        <v>1906027</v>
       </c>
       <c r="E55">
-        <v>3867379</v>
+        <v>1682612</v>
       </c>
       <c r="F55">
-        <v>3867379</v>
+        <v>1682612</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1376,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>4052312</v>
+        <v>3171483</v>
       </c>
       <c r="D56">
-        <v>3568820</v>
+        <v>1841400</v>
       </c>
       <c r="E56">
-        <v>3549169</v>
+        <v>1521967</v>
       </c>
       <c r="F56">
-        <v>3549169</v>
+        <v>1521967</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1394,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>3745769</v>
+        <v>2840580</v>
       </c>
       <c r="D57">
-        <v>3439714</v>
+        <v>1635682</v>
       </c>
       <c r="E57">
-        <v>3474051</v>
+        <v>1437066</v>
       </c>
       <c r="F57">
-        <v>3474051</v>
+        <v>1437066</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1412,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>4062472</v>
+        <v>3222159</v>
       </c>
       <c r="D58">
-        <v>3723660</v>
+        <v>1948283</v>
       </c>
       <c r="E58">
-        <v>3748537</v>
+        <v>1664992</v>
       </c>
       <c r="F58">
-        <v>3748537</v>
+        <v>1664992</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1430,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>4090624</v>
+        <v>3170723</v>
       </c>
       <c r="D59">
-        <v>3622972</v>
+        <v>1841953</v>
       </c>
       <c r="E59">
-        <v>3660632</v>
+        <v>1602625</v>
       </c>
       <c r="F59">
-        <v>3660632</v>
+        <v>1602625</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1448,16 +1448,16 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>4386677</v>
+        <v>3414900</v>
       </c>
       <c r="D60">
-        <v>3897420</v>
+        <v>2009599</v>
       </c>
       <c r="E60">
-        <v>3930628</v>
+        <v>1724442</v>
       </c>
       <c r="F60">
-        <v>3930628</v>
+        <v>1724442</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>4038748</v>
+        <v>3171871</v>
       </c>
       <c r="D61">
-        <v>3719309</v>
+        <v>1878746</v>
       </c>
       <c r="E61">
-        <v>3685500</v>
+        <v>1553853</v>
       </c>
       <c r="F61">
-        <v>3685500</v>
+        <v>1553853</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>17774173</v>
+        <v>14221324</v>
       </c>
       <c r="D62">
-        <v>15439728</v>
+        <v>8225536</v>
       </c>
       <c r="E62">
-        <v>15205510</v>
+        <v>6795971</v>
       </c>
       <c r="F62">
-        <v>15205510</v>
+        <v>6795971</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>15727129</v>
+        <v>12405419</v>
       </c>
       <c r="D63">
-        <v>13945897</v>
+        <v>7410648</v>
       </c>
       <c r="E63">
-        <v>13916765</v>
+        <v>6323474</v>
       </c>
       <c r="F63">
-        <v>13916765</v>
+        <v>6323474</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1522,16 +1522,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>15845041</v>
+        <v>12141282</v>
       </c>
       <c r="D64">
-        <v>14394275</v>
+        <v>7083530</v>
       </c>
       <c r="E64">
-        <v>14486411</v>
+        <v>6119079</v>
       </c>
       <c r="F64">
-        <v>14486411</v>
+        <v>6119079</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1540,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>15545951</v>
+        <v>11905414</v>
       </c>
       <c r="D65">
-        <v>13997860</v>
+        <v>7163958</v>
       </c>
       <c r="E65">
-        <v>14032933</v>
+        <v>6236944</v>
       </c>
       <c r="F65">
-        <v>14032933</v>
+        <v>6236944</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1558,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>16130212</v>
+        <v>12606576</v>
       </c>
       <c r="D66">
-        <v>14678348</v>
+        <v>7483985</v>
       </c>
       <c r="E66">
-        <v>14803753</v>
+        <v>6511722</v>
       </c>
       <c r="F66">
-        <v>14803753</v>
+        <v>6511722</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1576,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>15338276</v>
+        <v>11779415</v>
       </c>
       <c r="D67">
-        <v>14110270</v>
+        <v>7018090</v>
       </c>
       <c r="E67">
-        <v>14315546</v>
+        <v>6206903</v>
       </c>
       <c r="F67">
-        <v>14315546</v>
+        <v>6206903</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>16806310</v>
+        <v>13428787</v>
       </c>
       <c r="D68">
-        <v>14837736</v>
+        <v>7937995</v>
       </c>
       <c r="E68">
-        <v>14716355</v>
+        <v>6886161</v>
       </c>
       <c r="F68">
-        <v>14716355</v>
+        <v>6886161</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1612,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>15840509</v>
+        <v>12425364</v>
       </c>
       <c r="D69">
-        <v>14123315</v>
+        <v>7369125</v>
       </c>
       <c r="E69">
-        <v>14162514</v>
+        <v>6276619</v>
       </c>
       <c r="F69">
-        <v>14162514</v>
+        <v>6276619</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1630,16 +1630,16 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>15197032</v>
+        <v>11915185</v>
       </c>
       <c r="D70">
-        <v>13774967</v>
+        <v>7171651</v>
       </c>
       <c r="E70">
-        <v>13751191</v>
+        <v>6334786</v>
       </c>
       <c r="F70">
-        <v>13751191</v>
+        <v>6334786</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1648,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>16328024</v>
+        <v>12598040</v>
       </c>
       <c r="D71">
-        <v>14652717</v>
+        <v>7409265</v>
       </c>
       <c r="E71">
-        <v>14576538</v>
+        <v>6340372</v>
       </c>
       <c r="F71">
-        <v>14576538</v>
+        <v>6340372</v>
       </c>
     </row>
   </sheetData>

--- a/objetivos.xlsx
+++ b/objetivos.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2016</v>
+        <v>1602</v>
       </c>
       <c r="D4">
         <v>1190</v>
@@ -466,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1220</v>
+        <v>1335</v>
       </c>
       <c r="D6">
-        <v>1047</v>
+        <v>686</v>
       </c>
       <c r="E6">
-        <v>582.0000000000001</v>
+        <v>601.0000000000002</v>
       </c>
       <c r="F6">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1866</v>
+        <v>1640</v>
       </c>
       <c r="D7">
         <v>922</v>
@@ -520,16 +520,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1798</v>
+        <v>1912</v>
       </c>
       <c r="D9">
-        <v>1483</v>
+        <v>1563</v>
       </c>
       <c r="E9">
-        <v>995.0000000000001</v>
+        <v>1039</v>
       </c>
       <c r="F9">
-        <v>995</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>6869</v>
+        <v>6853</v>
       </c>
       <c r="D14">
         <v>4077</v>
@@ -648,16 +648,16 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>4922</v>
+        <v>4457</v>
       </c>
       <c r="D16">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E16">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F16">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -669,7 +669,7 @@
         <v>6622</v>
       </c>
       <c r="D17">
-        <v>4292</v>
+        <v>3898</v>
       </c>
       <c r="E17">
         <v>3304</v>
@@ -684,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>11939</v>
+        <v>10601</v>
       </c>
       <c r="D18">
-        <v>7304</v>
+        <v>6529</v>
       </c>
       <c r="E18">
         <v>5656</v>
@@ -720,16 +720,16 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>4175</v>
+        <v>4045</v>
       </c>
       <c r="D20">
-        <v>2156</v>
+        <v>2116</v>
       </c>
       <c r="E20">
-        <v>2028</v>
+        <v>2004</v>
       </c>
       <c r="F20">
-        <v>2028</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>5120</v>
+        <v>5290</v>
       </c>
       <c r="D21">
-        <v>3216</v>
+        <v>3299</v>
       </c>
       <c r="E21">
-        <v>2331</v>
+        <v>2360</v>
       </c>
       <c r="F21">
-        <v>2331</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -758,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>42719</v>
+        <v>41490</v>
       </c>
       <c r="D22">
-        <v>24469</v>
+        <v>24782</v>
       </c>
       <c r="E22">
-        <v>20229</v>
+        <v>20426</v>
       </c>
       <c r="F22">
-        <v>20229</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -776,16 +776,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>33099</v>
+        <v>31857</v>
       </c>
       <c r="D23">
-        <v>18741</v>
+        <v>18228</v>
       </c>
       <c r="E23">
-        <v>16607</v>
+        <v>16154</v>
       </c>
       <c r="F23">
-        <v>16607</v>
+        <v>16154</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -794,16 +794,16 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>34471</v>
+        <v>35888</v>
       </c>
       <c r="D24">
-        <v>21497</v>
+        <v>21341</v>
       </c>
       <c r="E24">
-        <v>16881</v>
+        <v>17044</v>
       </c>
       <c r="F24">
-        <v>16881</v>
+        <v>17044</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -812,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>28745</v>
+        <v>28069</v>
       </c>
       <c r="D25">
-        <v>18549</v>
+        <v>17601</v>
       </c>
       <c r="E25">
-        <v>14796</v>
+        <v>15113</v>
       </c>
       <c r="F25">
-        <v>14796</v>
+        <v>15113</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>34311</v>
+        <v>32667</v>
       </c>
       <c r="D26">
         <v>18481</v>
@@ -851,7 +851,7 @@
         <v>36235</v>
       </c>
       <c r="D27">
-        <v>21648</v>
+        <v>20703</v>
       </c>
       <c r="E27">
         <v>16610</v>
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>45694</v>
+        <v>44996</v>
       </c>
       <c r="D28">
         <v>23376</v>
@@ -887,7 +887,7 @@
         <v>44414</v>
       </c>
       <c r="D29">
-        <v>27561</v>
+        <v>25764</v>
       </c>
       <c r="E29">
         <v>22798</v>
@@ -902,10 +902,10 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>34756</v>
+        <v>34496</v>
       </c>
       <c r="D30">
-        <v>21928</v>
+        <v>21334</v>
       </c>
       <c r="E30">
         <v>15991</v>
@@ -923,7 +923,7 @@
         <v>33489</v>
       </c>
       <c r="D31">
-        <v>20501</v>
+        <v>19617</v>
       </c>
       <c r="E31">
         <v>15609</v>
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>151247</v>
+        <v>147531</v>
       </c>
       <c r="D32">
-        <v>88251</v>
+        <v>88599</v>
       </c>
       <c r="E32">
-        <v>74379</v>
+        <v>75899</v>
       </c>
       <c r="F32">
-        <v>74379</v>
+        <v>75899</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -958,16 +958,16 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>127623</v>
+        <v>127624</v>
       </c>
       <c r="D33">
-        <v>74884</v>
+        <v>74885</v>
       </c>
       <c r="E33">
-        <v>62201</v>
+        <v>62202</v>
       </c>
       <c r="F33">
-        <v>62200.99999999999</v>
+        <v>62201.99999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -976,16 +976,16 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>136647</v>
+        <v>131875</v>
       </c>
       <c r="D34">
-        <v>82326</v>
+        <v>81368</v>
       </c>
       <c r="E34">
-        <v>74240</v>
+        <v>75599</v>
       </c>
       <c r="F34">
-        <v>74240</v>
+        <v>75599</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -997,7 +997,7 @@
         <v>131662</v>
       </c>
       <c r="D35">
-        <v>82495</v>
+        <v>81104</v>
       </c>
       <c r="E35">
         <v>71579</v>
@@ -1012,16 +1012,16 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>128614</v>
+        <v>126203</v>
       </c>
       <c r="D36">
-        <v>72374</v>
+        <v>72986</v>
       </c>
       <c r="E36">
-        <v>61437</v>
+        <v>60580</v>
       </c>
       <c r="F36">
-        <v>61437</v>
+        <v>60580</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1030,16 +1030,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>143452</v>
+        <v>142234</v>
       </c>
       <c r="D37">
-        <v>80258.99999999999</v>
+        <v>79313.99999999999</v>
       </c>
       <c r="E37">
-        <v>71119</v>
+        <v>70663</v>
       </c>
       <c r="F37">
-        <v>71119</v>
+        <v>70663</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1048,16 +1048,16 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <v>137485</v>
+        <v>136839</v>
       </c>
       <c r="D38">
-        <v>79572</v>
+        <v>79302</v>
       </c>
       <c r="E38">
-        <v>69417</v>
+        <v>69247</v>
       </c>
       <c r="F38">
-        <v>69417.00000000001</v>
+        <v>69247.00000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1066,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>165585</v>
+        <v>165404</v>
       </c>
       <c r="D39">
-        <v>98978</v>
+        <v>98305</v>
       </c>
       <c r="E39">
         <v>82339</v>
@@ -1084,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>120210</v>
+        <v>119006</v>
       </c>
       <c r="D40">
-        <v>70782</v>
+        <v>71203</v>
       </c>
       <c r="E40">
-        <v>64163</v>
+        <v>63855</v>
       </c>
       <c r="F40">
-        <v>64163</v>
+        <v>63855</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1102,16 +1102,16 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>120309</v>
+        <v>119887</v>
       </c>
       <c r="D41">
-        <v>74170</v>
+        <v>73081</v>
       </c>
       <c r="E41">
-        <v>63266</v>
+        <v>63536</v>
       </c>
       <c r="F41">
-        <v>63266</v>
+        <v>63536</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1122,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>504459</v>
+        <v>504111</v>
       </c>
       <c r="D42">
-        <v>300525</v>
+        <v>300804</v>
       </c>
       <c r="E42">
-        <v>261576</v>
+        <v>261855</v>
       </c>
       <c r="F42">
-        <v>261576</v>
+        <v>261855</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1140,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>547305</v>
+        <v>547090</v>
       </c>
       <c r="D43">
-        <v>325036</v>
+        <v>324875</v>
       </c>
       <c r="E43">
-        <v>278828</v>
+        <v>280568</v>
       </c>
       <c r="F43">
-        <v>278828</v>
+        <v>280568</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1158,16 +1158,16 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>496489</v>
+        <v>491876</v>
       </c>
       <c r="D44">
-        <v>299645</v>
+        <v>298507</v>
       </c>
       <c r="E44">
-        <v>266057</v>
+        <v>265255</v>
       </c>
       <c r="F44">
-        <v>266057</v>
+        <v>265255</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1176,16 +1176,16 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>595700</v>
+        <v>588635</v>
       </c>
       <c r="D45">
-        <v>365309</v>
+        <v>359608</v>
       </c>
       <c r="E45">
-        <v>306919</v>
+        <v>307475</v>
       </c>
       <c r="F45">
-        <v>306918.9999999999</v>
+        <v>307475</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1194,16 +1194,16 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>531122</v>
+        <v>522230</v>
       </c>
       <c r="D46">
-        <v>313065</v>
+        <v>311841</v>
       </c>
       <c r="E46">
-        <v>266355</v>
+        <v>266362</v>
       </c>
       <c r="F46">
-        <v>266355</v>
+        <v>266362</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1212,16 +1212,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>489792</v>
+        <v>484723</v>
       </c>
       <c r="D47">
-        <v>285248</v>
+        <v>285341</v>
       </c>
       <c r="E47">
-        <v>244148</v>
+        <v>244388</v>
       </c>
       <c r="F47">
-        <v>244148</v>
+        <v>244388</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1230,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>465461</v>
+        <v>456562</v>
       </c>
       <c r="D48">
-        <v>276555</v>
+        <v>277317</v>
       </c>
       <c r="E48">
-        <v>258985</v>
+        <v>256817</v>
       </c>
       <c r="F48">
-        <v>258985</v>
+        <v>256817</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1248,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>506033</v>
+        <v>498776</v>
       </c>
       <c r="D49">
-        <v>284706</v>
+        <v>281349</v>
       </c>
       <c r="E49">
-        <v>241180</v>
+        <v>238943</v>
       </c>
       <c r="F49">
-        <v>241180</v>
+        <v>238943</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1266,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>542366</v>
+        <v>538030</v>
       </c>
       <c r="D50">
-        <v>323980</v>
+        <v>319277</v>
       </c>
       <c r="E50">
-        <v>264231</v>
+        <v>264007</v>
       </c>
       <c r="F50">
-        <v>264231</v>
+        <v>264007</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>551049</v>
+        <v>544185</v>
       </c>
       <c r="D51">
-        <v>327149</v>
+        <v>326685</v>
       </c>
       <c r="E51">
-        <v>290598</v>
+        <v>290900</v>
       </c>
       <c r="F51">
-        <v>290598</v>
+        <v>290900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>2991248</v>
+        <v>2984092</v>
       </c>
       <c r="D52">
-        <v>1844049</v>
+        <v>1832960</v>
       </c>
       <c r="E52">
-        <v>1617377</v>
+        <v>1616362</v>
       </c>
       <c r="F52">
-        <v>1617377</v>
+        <v>1616362</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1322,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>3415885</v>
+        <v>3407616</v>
       </c>
       <c r="D53">
-        <v>2022069</v>
+        <v>2016283</v>
       </c>
       <c r="E53">
-        <v>1769394</v>
+        <v>1770039</v>
       </c>
       <c r="F53">
-        <v>1769394</v>
+        <v>1770039</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1340,16 +1340,16 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>3147973</v>
+        <v>3146317</v>
       </c>
       <c r="D54">
-        <v>1899689</v>
+        <v>1883723</v>
       </c>
       <c r="E54">
-        <v>1659393</v>
+        <v>1662877</v>
       </c>
       <c r="F54">
-        <v>1659393</v>
+        <v>1662877</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1358,16 +1358,16 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>3266428</v>
+        <v>3251992</v>
       </c>
       <c r="D55">
-        <v>1906027</v>
+        <v>1904782</v>
       </c>
       <c r="E55">
-        <v>1682612</v>
+        <v>1683510</v>
       </c>
       <c r="F55">
-        <v>1682612</v>
+        <v>1683510</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1376,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>3171483</v>
+        <v>3146442</v>
       </c>
       <c r="D56">
-        <v>1841400</v>
+        <v>1839713</v>
       </c>
       <c r="E56">
-        <v>1521967</v>
+        <v>1526531</v>
       </c>
       <c r="F56">
-        <v>1521967</v>
+        <v>1526531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1394,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="C57">
-        <v>2840580</v>
+        <v>2834855</v>
       </c>
       <c r="D57">
-        <v>1635682</v>
+        <v>1637588</v>
       </c>
       <c r="E57">
-        <v>1437066</v>
+        <v>1438940</v>
       </c>
       <c r="F57">
-        <v>1437066</v>
+        <v>1438940</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1412,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>3222159</v>
+        <v>3211005</v>
       </c>
       <c r="D58">
-        <v>1948283</v>
+        <v>1945776</v>
       </c>
       <c r="E58">
-        <v>1664992</v>
+        <v>1666490</v>
       </c>
       <c r="F58">
-        <v>1664992</v>
+        <v>1666490</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1430,16 +1430,16 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>3170723</v>
+        <v>3147061</v>
       </c>
       <c r="D59">
-        <v>1841953</v>
+        <v>1836967</v>
       </c>
       <c r="E59">
-        <v>1602625</v>
+        <v>1605530</v>
       </c>
       <c r="F59">
-        <v>1602625</v>
+        <v>1605530</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1448,16 +1448,16 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>3414900</v>
+        <v>3409192</v>
       </c>
       <c r="D60">
-        <v>2009599</v>
+        <v>2008494</v>
       </c>
       <c r="E60">
-        <v>1724442</v>
+        <v>1733258</v>
       </c>
       <c r="F60">
-        <v>1724442</v>
+        <v>1733258</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1466,16 +1466,16 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>3171871</v>
+        <v>3162695</v>
       </c>
       <c r="D61">
-        <v>1878746</v>
+        <v>1868499</v>
       </c>
       <c r="E61">
-        <v>1553853</v>
+        <v>1554364</v>
       </c>
       <c r="F61">
-        <v>1553853</v>
+        <v>1554364</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>14221324</v>
+        <v>14183983</v>
       </c>
       <c r="D62">
-        <v>8225536</v>
+        <v>8215920</v>
       </c>
       <c r="E62">
-        <v>6795971</v>
+        <v>6802648</v>
       </c>
       <c r="F62">
-        <v>6795971</v>
+        <v>6802648</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>12405419</v>
+        <v>12404145</v>
       </c>
       <c r="D63">
-        <v>7410648</v>
+        <v>7402458</v>
       </c>
       <c r="E63">
-        <v>6323474</v>
+        <v>6304942</v>
       </c>
       <c r="F63">
-        <v>6323474</v>
+        <v>6304942</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1522,16 +1522,16 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>12141282</v>
+        <v>12102549</v>
       </c>
       <c r="D64">
-        <v>7083530</v>
+        <v>7079506</v>
       </c>
       <c r="E64">
-        <v>6119079</v>
+        <v>6126045</v>
       </c>
       <c r="F64">
-        <v>6119079</v>
+        <v>6126045</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1540,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>11905414</v>
+        <v>11919372</v>
       </c>
       <c r="D65">
-        <v>7163958</v>
+        <v>7152878</v>
       </c>
       <c r="E65">
-        <v>6236944</v>
+        <v>6242785</v>
       </c>
       <c r="F65">
-        <v>6236944</v>
+        <v>6242785</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1558,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>12606576</v>
+        <v>12597957</v>
       </c>
       <c r="D66">
-        <v>7483985</v>
+        <v>7462782</v>
       </c>
       <c r="E66">
-        <v>6511722</v>
+        <v>6511035</v>
       </c>
       <c r="F66">
-        <v>6511722</v>
+        <v>6511035</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1576,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>11779415</v>
+        <v>11740512</v>
       </c>
       <c r="D67">
-        <v>7018090</v>
+        <v>7011681</v>
       </c>
       <c r="E67">
-        <v>6206903</v>
+        <v>6204954</v>
       </c>
       <c r="F67">
-        <v>6206903</v>
+        <v>6204954</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1594,16 +1594,16 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>13428787</v>
+        <v>13399165</v>
       </c>
       <c r="D68">
-        <v>7937995</v>
+        <v>7927674</v>
       </c>
       <c r="E68">
-        <v>6886161</v>
+        <v>6864525</v>
       </c>
       <c r="F68">
-        <v>6886161</v>
+        <v>6864525</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1612,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>12425364</v>
+        <v>12403387</v>
       </c>
       <c r="D69">
-        <v>7369125</v>
+        <v>7356875</v>
       </c>
       <c r="E69">
-        <v>6276619</v>
+        <v>6262921</v>
       </c>
       <c r="F69">
-        <v>6276619</v>
+        <v>6262921</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1630,16 +1630,16 @@
         <v>9</v>
       </c>
       <c r="C70">
-        <v>11915185</v>
+        <v>11871992</v>
       </c>
       <c r="D70">
-        <v>7171651</v>
+        <v>7158556</v>
       </c>
       <c r="E70">
-        <v>6334786</v>
+        <v>6336840</v>
       </c>
       <c r="F70">
-        <v>6334786</v>
+        <v>6336840</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1648,16 +1648,16 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>12598040</v>
+        <v>12545399</v>
       </c>
       <c r="D71">
-        <v>7409265</v>
+        <v>7392734</v>
       </c>
       <c r="E71">
-        <v>6340372</v>
+        <v>6348553</v>
       </c>
       <c r="F71">
-        <v>6340372</v>
+        <v>6348553</v>
       </c>
     </row>
   </sheetData>
